--- a/base.xlsx
+++ b/base.xlsx
@@ -9,20 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24180" windowHeight="7695" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24180" windowHeight="7695"/>
   </bookViews>
   <sheets>
     <sheet name="Сотрудники" sheetId="1" r:id="rId1"/>
     <sheet name="Специализация" sheetId="2" r:id="rId2"/>
     <sheet name="Виды_работ" sheetId="3" r:id="rId3"/>
     <sheet name="Клиенты" sheetId="4" r:id="rId4"/>
+    <sheet name="бланк_заказа" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="70">
   <si>
     <t>Номер сотрудника</t>
   </si>
@@ -42,34 +43,97 @@
     <t>Статус</t>
   </si>
   <si>
-    <t>Толик</t>
+    <t>Мария</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Иванова </t>
   </si>
   <si>
     <t>+7932sds4733228</t>
   </si>
   <si>
-    <t>sadgjfsd</t>
+    <t xml:space="preserve">Леонид </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Суслов </t>
   </si>
   <si>
     <t>+7932sds4733229</t>
   </si>
   <si>
-    <t>Коля</t>
-  </si>
-  <si>
-    <t>Петя</t>
+    <t xml:space="preserve">Павел </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Марков </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Злата </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сорокина </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Денис </t>
+  </si>
+  <si>
+    <t>Орлов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Андрей </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Щербаков </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Всеволод </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Борисов </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Матвей </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Баранов </t>
   </si>
   <si>
     <t>Вася</t>
   </si>
   <si>
-    <t>Саша</t>
-  </si>
-  <si>
-    <t>Чакин</t>
-  </si>
-  <si>
-    <t>Пупкин</t>
+    <t xml:space="preserve">Коровин </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Валерия </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Горлова </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Александра </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Платонов </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Евгений </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Морозова </t>
+  </si>
+  <si>
+    <t>29075629356</t>
+  </si>
+  <si>
+    <t>Никита</t>
+  </si>
+  <si>
+    <t>Дубовик</t>
+  </si>
+  <si>
+    <t>+72376528935</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
   <si>
     <t>Номер сотрудника(id)</t>
@@ -93,7 +157,19 @@
     <t>700</t>
   </si>
   <si>
-    <t>Рекомендую ваще топ</t>
+    <t>Бритье</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>Мытьё</t>
+  </si>
+  <si>
+    <t>3000</t>
+  </si>
+  <si>
+    <t>300</t>
   </si>
   <si>
     <t>Номер клиента</t>
@@ -103,6 +179,60 @@
   </si>
   <si>
     <t>телефон</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Семён </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Овчинников </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Владислав </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Коротков </t>
+  </si>
+  <si>
+    <t>3252356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Александр </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ковалев </t>
+  </si>
+  <si>
+    <t>4283675892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Максим </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Киселев </t>
+  </si>
+  <si>
+    <t>903469346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Казаков </t>
+  </si>
+  <si>
+    <t>20620620</t>
+  </si>
+  <si>
+    <t>Ловин</t>
+  </si>
+  <si>
+    <t>+7932534523</t>
+  </si>
+  <si>
+    <t>Номер заказа</t>
+  </si>
+  <si>
+    <t>Номер работы</t>
+  </si>
+  <si>
+    <t>Номер мастера</t>
   </si>
 </sst>
 </file>
@@ -434,17 +564,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="A2:C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -474,11 +605,17 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>36</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -486,13 +623,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>36</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -500,13 +643,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>36</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -514,13 +663,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>36</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -528,13 +683,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>36</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -542,16 +703,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>36</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -559,16 +723,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>36</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -576,16 +743,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>36</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -593,16 +763,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>36</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -610,16 +783,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>36</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -627,16 +803,59 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="C12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" t="s">
-        <v>8</v>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -647,10 +866,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -662,10 +881,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -690,6 +909,30 @@
       </c>
       <c r="B4">
         <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -699,27 +942,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>4</v>
@@ -730,13 +974,55 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -747,10 +1033,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E7" sqref="E2:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,16 +1050,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
@@ -784,16 +1070,157 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="D12:E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>500</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
